--- a/docs/StructureDefinition-Observation-mother-height.xlsx
+++ b/docs/StructureDefinition-Observation-mother-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1428,7 +1428,7 @@
     <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
-    <t>Coded responses from the common UCUM units for vital signs value set.</t>
+    <t>inch</t>
   </si>
   <si>
     <t>[in_i]</t>

--- a/docs/StructureDefinition-Observation-mother-height.xlsx
+++ b/docs/StructureDefinition-Observation-mother-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-mother-height.xlsx
+++ b/docs/StructureDefinition-Observation-mother-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
